--- a/data/trans_camb/P1418-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1418-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.737233938590546</v>
+        <v>-3.861761435183316</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.969406259526799</v>
+        <v>-4.926512376425799</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.204018376692701</v>
+        <v>-5.042040493766004</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.776850108276538</v>
+        <v>-5.460740809136317</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.491537898991038</v>
+        <v>-4.024836665668763</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-10.54512586065943</v>
+        <v>-10.68435926912777</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.466508291579204</v>
+        <v>-3.336949132782932</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.101683588339306</v>
+        <v>-3.175765127196986</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-6.737009916713841</v>
+        <v>-6.558926752968673</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.19271502219355</v>
+        <v>2.165927614749835</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5732707543513288</v>
+        <v>0.4675277106326268</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1413355421723996</v>
+        <v>0.1041547483597973</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.968471832859036</v>
+        <v>5.000719177960558</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.17971691112546</v>
+        <v>6.557277827046859</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-2.708358735865243</v>
+        <v>-2.857551412576847</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.415224676435916</v>
+        <v>2.425106233870185</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.416137748190823</v>
+        <v>2.576084401512158</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-2.343797324926953</v>
+        <v>-2.030124717818501</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.5126594074497873</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.5675593021398326</v>
+        <v>-0.5675593021398325</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.02930615710558364</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6719174711992667</v>
+        <v>-0.6647741166264144</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8399281549025699</v>
+        <v>-0.8483095432347395</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8446614899283371</v>
+        <v>-0.8692573821279045</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4457437332523218</v>
+        <v>-0.4674784366382775</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3280021123526365</v>
+        <v>-0.3488414398236497</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.855843457672267</v>
+        <v>-0.8545604505301203</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4586944326697805</v>
+        <v>-0.4263533182019258</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3859871930292532</v>
+        <v>-0.4105031856680776</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.810300122163839</v>
+        <v>-0.8056030894589841</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9237291274319891</v>
+        <v>0.9154015664850061</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3779008157267179</v>
+        <v>0.3958778571013012</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3066072738978417</v>
+        <v>0.09256460723625126</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7908226885822577</v>
+        <v>0.851375915506639</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9878769754293341</v>
+        <v>1.111970743007965</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4376699320834511</v>
+        <v>-0.4661770940926658</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5121310746941939</v>
+        <v>0.5129723515015125</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5160090471753691</v>
+        <v>0.5269191304057876</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.4504890590313244</v>
+        <v>-0.4101246886349386</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.110641139425836</v>
+        <v>-6.067879258977785</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.885750644584269</v>
+        <v>-6.738613130772409</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.419777343732504</v>
+        <v>-6.401000645497168</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-10.46953839097518</v>
+        <v>-10.91876839423461</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-12.81015890102701</v>
+        <v>-12.94717753212792</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-11.92364339734709</v>
+        <v>-11.53573596142126</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-7.638551500982038</v>
+        <v>-7.50712991889161</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-9.179007913059154</v>
+        <v>-8.910889244016031</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-8.176121983194182</v>
+        <v>-8.195524541731606</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.5970182273489096</v>
+        <v>-0.5344740858425979</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.682105399154513</v>
+        <v>-1.609318897575372</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.098284834344416</v>
+        <v>-1.185992056905549</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.75398132800851</v>
+        <v>-3.377217388709306</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-5.518979012509438</v>
+        <v>-5.507785946121683</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-4.951971318233739</v>
+        <v>-4.891724706763416</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-2.814279754243603</v>
+        <v>-2.787473834824025</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-4.485374719846682</v>
+        <v>-4.391111233056853</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-3.690709510513131</v>
+        <v>-3.711817507568524</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.6671909282548193</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.592089354174397</v>
+        <v>-0.5920893541743971</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8077720975277276</v>
+        <v>-0.7780730747564252</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8716860813119204</v>
+        <v>-0.876512486532269</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8194661236424541</v>
+        <v>-0.8271706244897474</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6628091279757996</v>
+        <v>-0.6807743461887558</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7951506673811644</v>
+        <v>-0.8002389032411382</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7126452574466051</v>
+        <v>-0.7165034662828351</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6647585050733428</v>
+        <v>-0.6693230512111923</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7878502637159361</v>
+        <v>-0.7873125982158118</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.7110590112828102</v>
+        <v>-0.7079664318219008</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.0975367063997245</v>
+        <v>-0.05033028340779798</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.3587576983625108</v>
+        <v>-0.3397173070933967</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2326445683994196</v>
+        <v>-0.2193688053590587</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2431244541584285</v>
+        <v>-0.2714444409399833</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.4453277193294168</v>
+        <v>-0.4253944412351112</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.401594795144769</v>
+        <v>-0.413482399411036</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.3090995671387828</v>
+        <v>-0.3050675941605274</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.5062753273272123</v>
+        <v>-0.4942711271336465</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.4291460971136639</v>
+        <v>-0.4352769846261366</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-1.599301327918046</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.745506507211639</v>
+        <v>1.745506507211637</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.795345199910613</v>
+        <v>-2.737343010054981</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.027410533753406</v>
+        <v>-3.030041793166476</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7691056047410961</v>
+        <v>-0.4471397160150537</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.963116531446025</v>
+        <v>-4.0911172161175</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.73899260722288</v>
+        <v>-6.51222155106438</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.801267155977933</v>
+        <v>-2.589175256387791</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.702308289396115</v>
+        <v>-2.706193834306823</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.042252432678171</v>
+        <v>-3.774047817615121</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.5372894943062606</v>
+        <v>-0.7821393451580968</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.903803846807515</v>
+        <v>2.866626973100528</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.306935449726189</v>
+        <v>2.512978138977127</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.08107192267429</v>
+        <v>5.504331445005775</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.390344806349736</v>
+        <v>3.955668641691162</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2901303391949888</v>
+        <v>0.6681611332459243</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.166304439097101</v>
+        <v>4.566811114711384</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.341163930155996</v>
+        <v>2.181839237368384</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5305599025947281</v>
+        <v>0.7325863374070497</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.880115524994162</v>
+        <v>3.970730646699697</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.2981200579522638</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3253736441045792</v>
+        <v>0.325373644104579</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5720178920741946</v>
+        <v>-0.5886945005216949</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6207404556639817</v>
+        <v>-0.6113976890623798</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2350145386578788</v>
+        <v>-0.1141968009573157</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4717422197949393</v>
+        <v>-0.4660040046998687</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7145290549853993</v>
+        <v>-0.7017040118442833</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3219263950887959</v>
+        <v>-0.2633233639740043</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4064268337731421</v>
+        <v>-0.4009861339185644</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5944887024891173</v>
+        <v>-0.5734382570905805</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.08378012636030738</v>
+        <v>-0.1192204061584217</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.294808478958983</v>
+        <v>1.379318563152726</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.090853736316212</v>
+        <v>1.235939122773478</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.400181503797725</v>
+        <v>2.686616151842946</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6627772200201119</v>
+        <v>0.8226202667448759</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09607556824605433</v>
+        <v>0.263568673500529</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8439717278671159</v>
+        <v>0.9426769539696055</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5741044624508874</v>
+        <v>0.5297200601936668</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1224393557142995</v>
+        <v>0.1900688318593807</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9396403431631886</v>
+        <v>1.006330081787729</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-2.9301164153145</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-2.352583686019905</v>
+        <v>-2.352583686019904</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.637300161727672</v>
@@ -1306,7 +1306,7 @@
         <v>-2.062214401346183</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.7916344350820691</v>
+        <v>-0.7916344350820698</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.836446515052835</v>
+        <v>-1.750645812531347</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.515157497600984</v>
+        <v>-3.453908210029413</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.967026654339852</v>
+        <v>-1.88581626293067</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.921325151187199</v>
+        <v>2.128319419348351</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.719386954211363</v>
+        <v>-6.698663742300106</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.766199632766418</v>
+        <v>-5.689937353705823</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6261957848627329</v>
+        <v>0.8054602647465251</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.11763544549735</v>
+        <v>-4.321530255163526</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.828644583151047</v>
+        <v>-2.996762534955711</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.571053670982225</v>
+        <v>3.575367627818236</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.020400560844865</v>
+        <v>1.144343223474641</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.611803421274348</v>
+        <v>3.853705925024261</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.91489931799581</v>
+        <v>11.06909129093263</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3994042223266461</v>
+        <v>0.4868152337977318</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5591549389863375</v>
+        <v>0.5224313060271945</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.306847000088426</v>
+        <v>6.305803114439004</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.00270560835676861</v>
+        <v>0.1359872238477456</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.431990492239561</v>
+        <v>1.230048303604355</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.3751717784416573</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.3012245523091895</v>
+        <v>-0.3012245523091893</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.6502681956848214</v>
@@ -1411,7 +1411,7 @@
         <v>-0.3686779694425004</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1415265919374326</v>
+        <v>-0.1415265919374328</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4627747795378807</v>
+        <v>-0.4074645304605884</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7857670090424627</v>
+        <v>-0.7578756726934966</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4633138431250707</v>
+        <v>-0.4505729143814931</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1922820901352799</v>
+        <v>0.1897367998250914</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6819205394957198</v>
+        <v>-0.6873212272662839</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5617678380179343</v>
+        <v>-0.5681105418685031</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09113421326389139</v>
+        <v>0.1067708615840906</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6087126055894525</v>
+        <v>-0.6245947020317315</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4122711222712819</v>
+        <v>-0.432147022108399</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.541603226058631</v>
+        <v>1.823786564211455</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.562017526851623</v>
+        <v>0.6913088078442684</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.611181693067144</v>
+        <v>2.0612176051356</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.882918621310012</v>
+        <v>1.852166304587296</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08171671339110351</v>
+        <v>0.09101443506660403</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1183887051705917</v>
+        <v>0.09948297675665384</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.372192878779019</v>
+        <v>1.41121736827353</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.03243730848711794</v>
+        <v>0.06403761291061026</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3178608858877169</v>
+        <v>0.2978368864654377</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-4.365233197956636</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.1550405976748506</v>
+        <v>-0.1550405976748492</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.026393798043993</v>
@@ -1520,7 +1520,7 @@
         <v>-4.560303805967433</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-1.114314725082161</v>
+        <v>-1.114314725082159</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.987819100836728</v>
+        <v>-4.71441990140072</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-8.939092994796956</v>
+        <v>-8.462326635368045</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.674535412854434</v>
+        <v>-6.219690252320718</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.178662621428226</v>
+        <v>-1.773655624456925</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.755338456737377</v>
+        <v>-9.947800981211021</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.827134480354808</v>
+        <v>-5.367499694639569</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.042259776313514</v>
+        <v>-1.976211382015981</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.853061291461241</v>
+        <v>-8.027663289662916</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.399425248037086</v>
+        <v>-4.211180048524812</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.119739456872009</v>
+        <v>4.168383456306476</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.219541609213818</v>
+        <v>-2.02675096034697</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7492857532533084</v>
+        <v>0.7224412423023231</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.82862287490219</v>
+        <v>10.912593957957</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7654055384240793</v>
+        <v>0.7134234381560096</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.59831109715284</v>
+        <v>4.765600486232335</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.052471779478999</v>
+        <v>5.570042686247725</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.730162506876706</v>
+        <v>-1.433771790540967</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.989064383632545</v>
+        <v>1.908567715437094</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.4078349802453117</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.0144851320015486</v>
+        <v>-0.01448513200154847</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2527717959116061</v>
@@ -1625,7 +1625,7 @@
         <v>-0.568851021972924</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1389993073121567</v>
+        <v>-0.1389993073121565</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.667256417642778</v>
+        <v>-0.6856186701902871</v>
       </c>
       <c r="D32" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.7921717438373539</v>
+        <v>-0.7934901635453342</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1723356022656352</v>
+        <v>-0.1452479509966642</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7061389797024984</v>
+        <v>-0.716172357262344</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3898452241919083</v>
+        <v>-0.3692983698739111</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2260200846307321</v>
+        <v>-0.1979838484918025</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.783590104596483</v>
+        <v>-0.7783267876752972</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4168080878370701</v>
+        <v>-0.4193120388999654</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.484932496573953</v>
+        <v>1.374583551147398</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.2904842624441512</v>
+        <v>0.1147077112005217</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3755333819584337</v>
+        <v>0.3114015956014336</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.424636603178707</v>
+        <v>1.398202043035</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1464033397598258</v>
+        <v>0.1195360684497255</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6121010053320897</v>
+        <v>0.6938990625562386</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9641646814391522</v>
+        <v>0.9159684834980588</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2497737342224964</v>
+        <v>-0.1997743472911946</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3569163177271443</v>
+        <v>0.3154722557876259</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-0.2177121792144437</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4.603892542699907</v>
+        <v>4.603892542699909</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-0.6251301078014332</v>
@@ -1734,7 +1734,7 @@
         <v>-1.992826593004692</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>4.502857274295039</v>
+        <v>4.502857274295037</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.06909276858937</v>
+        <v>-3.168299213171214</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.25619567811486</v>
+        <v>-3.343746583032115</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.519238616312284</v>
+        <v>1.143917183733014</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-5.735210854902341</v>
+        <v>-6.049860392020653</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-8.179379639356535</v>
+        <v>-8.665526204639015</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.2020612070267995</v>
+        <v>-0.5627678887211992</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.213406790580135</v>
+        <v>-3.43118145613818</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-4.812465202104073</v>
+        <v>-4.712136994523796</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.584700955208003</v>
+        <v>1.549055577763614</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.076104569161528</v>
+        <v>3.006389271319383</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.873928203099105</v>
+        <v>2.749933873181392</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7.729059265470529</v>
+        <v>7.519575241738115</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.680694377844487</v>
+        <v>4.362731226106088</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.9438879647965063</v>
+        <v>1.291201838101561</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>9.119551963865442</v>
+        <v>9.173053291790589</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.829649051839704</v>
+        <v>2.249420282746733</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.041820980282298</v>
+        <v>0.6898493123913446</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>7.264134517157175</v>
+        <v>7.297088649240164</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>-0.2865009260967511</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.6473582717610711</v>
+        <v>0.6473582717610709</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6228026371009666</v>
+        <v>-0.6690047220680698</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.6465141226142388</v>
+        <v>-0.6481863213373729</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.2347535949824101</v>
+        <v>0.1393071993178422</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.4530653065220147</v>
+        <v>-0.4639446162943205</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.663156030464142</v>
+        <v>-0.6768038869185851</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.02515345697344044</v>
+        <v>-0.05460996619422145</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3836031726027218</v>
+        <v>-0.4177881407812785</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.5783911523207967</v>
+        <v>-0.5634190889503279</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.1907974362639666</v>
+        <v>0.1772594504003156</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.43589200566099</v>
+        <v>1.537457442470955</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.427951367832205</v>
+        <v>1.521586522784203</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3.91926524003084</v>
+        <v>4.069379900428134</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.6118586326995137</v>
+        <v>0.6038046269072458</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1319661022317169</v>
+        <v>0.2624070632080499</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.286166943445428</v>
+        <v>1.277907707453796</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5172082715087329</v>
+        <v>0.3897000625231348</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1864154692112848</v>
+        <v>0.1774057021625961</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.426075424414346</v>
+        <v>1.389091506454303</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>1.319005129004339</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>7.169339704129674</v>
+        <v>7.169339704129671</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.9555084592677621</v>
@@ -1948,7 +1948,7 @@
         <v>-0.0557419710357443</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>4.518651858398234</v>
+        <v>4.518651858398233</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.056163401925502</v>
+        <v>-3.289512714108827</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.892436605461208</v>
+        <v>-3.735822419352389</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.9449292444175587</v>
+        <v>-0.8265390830739652</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.8184195499345239</v>
+        <v>-1.199511155234426</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.865929676882923</v>
+        <v>-1.888989924739407</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>3.85375661610377</v>
+        <v>3.790728904944634</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.280661506757609</v>
+        <v>-1.070394141546107</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.160573789230833</v>
+        <v>-2.054493309351697</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>2.137793696672404</v>
+        <v>2.442082467265304</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.829857598371002</v>
+        <v>1.476651766441988</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.5852871989484433</v>
+        <v>0.6341215559735406</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.196559763514249</v>
+        <v>4.350206372273609</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.828612941079707</v>
+        <v>5.836521352852626</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.373023394630205</v>
+        <v>4.880691183311611</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>10.03764718954892</v>
+        <v>10.42083151729889</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.016892183393296</v>
+        <v>3.162236234093614</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.825490551204496</v>
+        <v>1.841352284410995</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.403447988579128</v>
+        <v>6.755010055170748</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.1462523917218076</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.7949423817529613</v>
+        <v>0.7949423817529611</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.1377815743819469</v>
@@ -2053,7 +2053,7 @@
         <v>-0.008037832060998534</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.6515766146237237</v>
+        <v>0.6515766146237236</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5349274041726667</v>
+        <v>-0.5195200578012887</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6388744106576233</v>
+        <v>-0.6253638016140602</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.175251706927318</v>
+        <v>-0.139661760996605</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.07634308912117424</v>
+        <v>-0.1173619310882589</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1895565655072197</v>
+        <v>-0.1848297821565162</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.342191351982647</v>
+        <v>0.3484883434814949</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1606884700051821</v>
+        <v>-0.1388237984915187</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2642437531231879</v>
+        <v>-0.2620461655425787</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2494577163827763</v>
+        <v>0.3056138372022036</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5454129969061261</v>
+        <v>0.4426734112303791</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1835488535326953</v>
+        <v>0.2279583562492803</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.228393570870024</v>
+        <v>1.242743726189055</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8061552527279474</v>
+        <v>0.8019669806381514</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5741555083048472</v>
+        <v>0.6556287471372221</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.334022855883416</v>
+        <v>1.446200463655387</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.514481168278675</v>
+        <v>0.5350537914022195</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.3062395193598761</v>
+        <v>0.3134980179836885</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.073598310477269</v>
+        <v>1.118737919579308</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-3.790686714201182</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-5.389491951412008</v>
+        <v>-5.389491951412007</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-5.329590020482567</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-9.73938349630763</v>
+        <v>-9.638942351344793</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-9.002324855319499</v>
+        <v>-8.842586640570872</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-8.108478416978553</v>
+        <v>-7.987625004289919</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-6.213564262750951</v>
+        <v>-6.324015630221536</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-7.061790499651835</v>
+        <v>-6.752951091721035</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-8.277392617528401</v>
+        <v>-8.458118995184973</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-7.48900345560099</v>
+        <v>-7.158297252957264</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-7.135046756520172</v>
+        <v>-6.909240985302088</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-7.408727945930514</v>
+        <v>-7.340370768795598</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-5.423746216115918</v>
+        <v>-5.176631072970503</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-4.306353825558331</v>
+        <v>-4.484506488155337</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-3.401717270451648</v>
+        <v>-3.564227190575084</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-0.1504183059853745</v>
+        <v>-0.4057966859104898</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.8422441276373354</v>
+        <v>-0.2886576451078598</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-2.81032214756003</v>
+        <v>-2.992503666938451</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-3.487767080745292</v>
+        <v>-3.464822032674972</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-3.356967974883321</v>
+        <v>-3.097890694109706</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-3.793034310408078</v>
+        <v>-3.791135694669471</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.3312363609803514</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.4709425589908724</v>
+        <v>-0.4709425589908723</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.5232112698411845</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.919868973933644</v>
+        <v>-0.9313246566714755</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.8574318263161991</v>
+        <v>-0.8654926828257109</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.7872509190987295</v>
+        <v>-0.7816973214810243</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.4701187768419659</v>
+        <v>-0.4761445045232149</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.5346111150453255</v>
+        <v>-0.5209664775253703</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.6214507021374291</v>
+        <v>-0.6115392228087851</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.6471440055797413</v>
+        <v>-0.6376880580618073</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.6238182055021655</v>
+        <v>-0.6199422050022043</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.6497766166980368</v>
+        <v>-0.6455959228401466</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.7035526336032624</v>
+        <v>-0.707779926630584</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.5600877657863915</v>
+        <v>-0.5941660542006583</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.4441722076780751</v>
+        <v>-0.470951288153422</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.001933817225349879</v>
+        <v>-0.04164100976515087</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.07265410804728581</v>
+        <v>-0.02638711158329268</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.2911813457577988</v>
+        <v>-0.2862798289546245</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.3766543700166933</v>
+        <v>-0.3739588252258961</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.3679980455447058</v>
+        <v>-0.3360721549273799</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.4213782116282757</v>
+        <v>-0.4178516173783762</v>
       </c>
     </row>
     <row r="52">
@@ -2376,7 +2376,7 @@
         <v>-3.020901852300623</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-1.249010297613724</v>
+        <v>-1.249010297613723</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-3.348296140183703</v>
+        <v>-3.443848751029229</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-3.998319149314496</v>
+        <v>-4.055634885484614</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-2.204608841488507</v>
+        <v>-2.32009280785612</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-1.879779217664258</v>
+        <v>-1.875651207289579</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-4.431869602491739</v>
+        <v>-4.40222720825848</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-2.639625558088571</v>
+        <v>-2.493032367922682</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-2.25518511275534</v>
+        <v>-2.272029951880918</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-3.9361955952099</v>
+        <v>-3.869778901549504</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-2.031273221024965</v>
+        <v>-2.052547492049599</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-1.376116651769798</v>
+        <v>-1.418375806903593</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-2.135164992883282</v>
+        <v>-2.198219841301793</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-0.1525835336452309</v>
+        <v>-0.2612349683223202</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1.101668265324939</v>
+        <v>1.041368291794716</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-1.540630726303854</v>
+        <v>-1.624479433434702</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-0.1093506348030189</v>
+        <v>-0.0199801987536034</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>-0.3869663959621317</v>
+        <v>-0.4029330486185508</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-2.197367613563623</v>
+        <v>-2.183962113169826</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-0.452300987029956</v>
+        <v>-0.4252800824681969</v>
       </c>
     </row>
     <row r="55">
@@ -2481,7 +2481,7 @@
         <v>-0.3850058294217079</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.159183008618041</v>
+        <v>-0.1591830086180408</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.5539507751202574</v>
+        <v>-0.5628530812051477</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.6658760606593997</v>
+        <v>-0.666889986454362</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.3660655634735325</v>
+        <v>-0.3683317725057837</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.173658491706454</v>
+        <v>-0.173425368232983</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.4106780015448092</v>
+        <v>-0.4034667622604546</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.2357430706868109</v>
+        <v>-0.2294606275727928</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.2717284776127269</v>
+        <v>-0.2735706144167256</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.473572781279174</v>
+        <v>-0.4623677638810587</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.2421712038850892</v>
+        <v>-0.2450237750975825</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.2751089437240923</v>
+        <v>-0.2763819705203422</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.435455084199848</v>
+        <v>-0.4290575996992695</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.02708179552065261</v>
+        <v>-0.04272925131881065</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1198390965183224</v>
+        <v>0.1119038255278779</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.1675297953393914</v>
+        <v>-0.1707066627816979</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.01091997457928725</v>
+        <v>-0.001987196440002903</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>-0.05038120799080123</v>
+        <v>-0.0545282608425828</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.2965162630405281</v>
+        <v>-0.2953807658041034</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.05612066539089773</v>
+        <v>-0.0601350733501304</v>
       </c>
     </row>
     <row r="58">
